--- a/biology/Zoologie/Fulgoroidea/Fulgoroidea.xlsx
+++ b/biology/Zoologie/Fulgoroidea/Fulgoroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fulgores
 Les Fulgoroidea sont une super-famille d'insectes hémiptères du sous-ordre des Auchenorrhyncha.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont des antennes courtes formées de deux articles basilaires et d'un fouet ; elles sont insérées sous l'œil, souvent dans l'échancrure de la masse oculaire. Leur tête montre un front caréné.
 </t>
@@ -544,9 +558,11 @@
           <t>Etats des populations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, 3 chercheurs montrent que même dans les aires protégées d’Europe centrale on enregistre un « déclin à long terme » de l'abondance de ces espèces dans les prairies sèches[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, 3 chercheurs montrent que même dans les aires protégées d’Europe centrale on enregistre un « déclin à long terme » de l'abondance de ces espèces dans les prairies sèches.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette super-famille regroupe 16 familles dont 7 sont présentes en France. 
 </t>
@@ -606,9 +624,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon FLOW[2], ITIS      (30 août 2017)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon FLOW, ITIS      (30 août 2017) :
 famille Acanaloniidae Amyot &amp; Serville, 1843
 famille Achilidae Stål, 1866
 famille Achilixiidae Muir, 1923
